--- a/biology/Botanique/Trichosanthes_kirilowii/Trichosanthes_kirilowii.xlsx
+++ b/biology/Botanique/Trichosanthes_kirilowii/Trichosanthes_kirilowii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichosanthes kirilowii (le concombre chinois) est une espèce de plantes à fleurs dicotylédones de la famille des Cucurbitaceae, originaire de Chine.
 C'est une des cinquante plantes de base employées en médecine traditionnelle chinoise, où elle est connue sous le nom de guālóu (栝楼).
@@ -514,17 +526,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (22 décembre 2014)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (22 décembre 2014) :
 Anguina kirilowii (Maxim.) Kuntze ;
 Eopepon aurantiacus Naud. ;
 Eopepon vitifolius Naud. ;
 Trichosanthes obtusiloba C.Y. Wu ;
-Trichosanthes palmata Hance.
-Liste des variétés
-Selon Catalogue of Life                                   (22 décembre 2014)[2] :
+Trichosanthes palmata Hance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Trichosanthes_kirilowii</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trichosanthes_kirilowii</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (22 décembre 2014) :
 variété Trichosanthes kirilowii var. japonica
-Selon NCBI  (22 décembre 2014)[3] :
+Selon NCBI  (22 décembre 2014) :
 variété Trichosanthes kirilowii var. japonica</t>
         </is>
       </c>
